--- a/biology/Botanique/Hibiscus/Hibiscus.xlsx
+++ b/biology/Botanique/Hibiscus/Hibiscus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hibiscus (du grec ἱϐίσκος / hibískos, signifiant guimauve) est un genre de plantes à fleurs annuelles ou vivaces qui comporte plusieurs centaines d'espèces. Les hibiscus font partie de la famille des Malvacées (Malvaceae).
 Ce sont des plantes connues depuis la haute Antiquité : elles étaient cultivées en Égypte et en Asie du Sud-Est pour leur caractère ornemental, mais aussi pour leurs fruits comestibles. Plusieurs espèces ont également des propriétés médicinales.
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des arbustes pouvant atteindre cinq mètres de haut et autant de large. Les feuilles sont alternes, simples, ovales ou lancéolées, à bord denté ou ondulé.
-Les fleurs, généralement à symétrie centrale (actinomorphes), sont isolées ou groupées en inflorescences. Le calice a cinq sépales libres ; la corolle cinq pétales libres ou légèrement soudés à la base. Les étamines nombreuses sont soudées entre elles, formant un long tube (androcée monadelphe caractéristique des Malvacées[2]) qui porte encore 5 dents au sommet, correspondant aux 5 phalanges, ce qui montre bien l'origine pentamère de l'androcée et que l'Hibiscus est un genre primitif[3]. Le pistil possède assez souvent un ovaire à 5 carpelles pluriovulés et un long style passant à l'intérieur du tube des étamines. Le stigmate pentafide (à cinq divisions ramifiées très allongées) ne devient fonctionnel que lorsque les étamines sont flétries, permettant ainsi la fécondation croisée[4].
+Les fleurs, généralement à symétrie centrale (actinomorphes), sont isolées ou groupées en inflorescences. Le calice a cinq sépales libres ; la corolle cinq pétales libres ou légèrement soudés à la base. Les étamines nombreuses sont soudées entre elles, formant un long tube (androcée monadelphe caractéristique des Malvacées) qui porte encore 5 dents au sommet, correspondant aux 5 phalanges, ce qui montre bien l'origine pentamère de l'androcée et que l'Hibiscus est un genre primitif. Le pistil possède assez souvent un ovaire à 5 carpelles pluriovulés et un long style passant à l'intérieur du tube des étamines. Le stigmate pentafide (à cinq divisions ramifiées très allongées) ne devient fonctionnel que lorsque les étamines sont flétries, permettant ainsi la fécondation croisée.
 			Noter les feuilles dentées ou ondulées, la fleur torsadée avant ouverture, la capsule, ici chez Hibiscus rosa-sinensis.
 			Naissance des pétales et du pistil d'une fleur d'Hibiscus rosa-sinensis.
 			Fruit de l'Hibiscus esculentus : le Gombo.
@@ -551,9 +565,11 @@
           <t>Position phylogénétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clade Hibisceae[5],[6]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clade Hibisceae,
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GRIN            (11 septembre 2017)[9] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (11 septembre 2017) :
 Hibiscus acetosella Welw. ex Hiern
 Hibiscus altissimus Hornby
 Hibiscus amoenus Link &amp; Otto
@@ -624,7 +642,7 @@
 Hibiscus goldsworthii F. Muell.
 Hibiscus greenwayi Baker f.
 Hibiscus hamabo Siebold &amp; Zucc.
-Hibiscus hareyae Lex A.J. Thomson &amp; Martin Cheek[10]
+Hibiscus hareyae Lex A.J. Thomson &amp; Martin Cheek
 Hibiscus hastatus L. f.
 Hibiscus heterophyllus Vent.
 Hibiscus hybr.
@@ -688,7 +706,7 @@
 Hibiscus waimeae A. Heller
 Hibiscus zonatus F. Muell.
 Espèces selon The Plant List
-Selon The Plant List            (11 septembre 2017)[11] :
+Selon The Plant List            (11 septembre 2017) :
 Hibiscus acapulcensis Fryxell
 Hibiscus acetosella Welw. ex Hiern
 Hibiscus acicularis Standl.
@@ -931,7 +949,7 @@
 Hibiscus yunnanensis S.Y. Hu
 Hibiscus zygomorphus Fryxell &amp; S.D. Koch
 Espèces et synonymes selon Tropicos
-Selon Tropicos                                           (11 septembre 2017)[12] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (11 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Hibiscus abelmoschus L.
 Hibiscus abutiloides Willd.
 Hibiscus acapulcensis Fryxell
@@ -1654,7 +1672,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les deux espèces les plus couramment cultivées en Europe sont l'hibiscus Rose de Chine ou « fleur des belles dames » (Hibiscus rosa-sinensis) et l'althéa ou « ketmie » (Hibiscus syriacus). D'autres espèces, vivaces ou annuelles, sont également cultivées, comme Hibiscus coccineus, Hibiscus moscheutos, Hibiscus palustris, Hibiscus trionum, etc.
 Hibiscus syriacus résiste sans problème dans un climat tempéré, jusqu'à −15 °C - −25 °C au Québec, à condition de lui offrir un endroit ensoleillé et abrité du vent. Il a l'avantage de garder ses feuilles en permanence (dans les régions chaudes) et de produire des fleurs tout l'été, parfois même en automne, en cas de climat favorable. L'althéa se reproduit très facilement par semis sans intervention humaine. La bouture est assez difficile pour cette espèce ; toutefois, elle est la seule possibilité pour conserver une variété déterminée.
@@ -1687,7 +1707,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hibiscus est valorisé à des fins alimentaires et médicinales. L'Oseille de Guinée (Hibiscus sabdariffa), originaire d'Afrique de l'Ouest, produit des pousses et des jeunes feuilles qui se mangent crues ou cuites comme des légumes. Ses fleurs rouges, séchées puis infusées, sont utilisées pour des sauces et confitures ou pour la préparation du bissap, infusion et sirop produisant une boisson rouge, bue fraîche et très sucrée (parfois préparée avec de la menthe) en Afrique de l'Ouest, notamment en Côte d’Ivoire, au Sénégal, au Mali et en Mauritanie où une de ses appellations populaires en vogue est devenue « coc'Afrique » (« seille » en Guinée, « roselle » en Jamaïque ou « agua de Jamaica » au Mexique). C'est une boisson riche en acide ascorbique (d'où son goût acidulé) et on lui prête des vertus diurétiques, sédatives et hypotensives, voire laxatives. En Guyane, on l'appelle « Oseille-pays » ou « Groseille-pays ». En Afrique de l'est et au Moyen-Orient, cette boisson est appelée  carcadé  (ou karkadé, karkadeh ; de l'arabe كركديه karkadayh). Elle est très prisée en Égypte, y compris pour ses vertus médicinales. Cette boisson y est bue froide ou chaude.
 Les fleurs de l'hibiscus syriacus sont comestibles et ont des propriétés émollientes (= qui détend, ramollit les tissus). Elles étaient autrefois utilisées en médecine traditionnelle pour calmer la toux et guérir les angines.
@@ -1721,7 +1743,9 @@
           <t>Aspect culturels</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Hibiscus syriacus est la fleur nationale de la Corée du Sud. Appelée « fleur d'éternité », (mugunghwa en coréen), elle illustre « l'esprit volontaire et modeste » du peuple coréen. Les Coréens ont prisé l'althéa comme une fleur céleste depuis le passé. Le royaume Silla (nom porté par la Corée au Ier siècle av. J.-C.) s'est aussi appelé le pays Mugunghwa.
 </t>
@@ -1752,7 +1776,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hibiscus est représenté sur un timbre du Rwanda de 1982 (valeur faciale 20 c, Y&amp;T 1047).
 </t>
